--- a/spinner.xlsx
+++ b/spinner.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holme\Desktop\RoboWars-IIT-Mandi\RoboWars2025\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1B503A-4F0A-4722-B6EA-40DE3E93FAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8250" yWindow="-15" windowWidth="8295" windowHeight="7380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -15,18 +21,29 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Calculations!$A$1:$U$36</definedName>
     <definedName name="seconds">'Data Table'!$G$5:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ODOT User</author>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="I6" authorId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -40,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -53,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M7" authorId="1">
+    <comment ref="M7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -125,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="1">
+    <comment ref="I13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="1">
+    <comment ref="I15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="1">
+    <comment ref="I19" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -200,13 +217,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows User</author>
     <author>ODOT User</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1">
+    <comment ref="C1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="1">
+    <comment ref="G1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -304,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="1">
+    <comment ref="I1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1030,14 +1047,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2138,7 +2155,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2261,124 +2278,111 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2465,6 +2469,105 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2483,143 +2586,44 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2637,7 +2641,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2677,6 +2681,30 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0" tint="-0.14990691854609822"/>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -2703,13 +2731,26 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2746,6 +2787,7 @@
           <c:y val="2.6470035539672216E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln w="25400">
@@ -2753,6 +2795,7 @@
         </a:ln>
       </c:spPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2767,6 +2810,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2803,61 +2847,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.44146958930700103</c:v>
+                  <c:v>0.19777696816024884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90681372939702864</c:v>
+                  <c:v>0.40624965893520154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3987630530787265</c:v>
+                  <c:v>0.62664138711512518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5292085977388956</c:v>
+                  <c:v>0.8603981391795098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6680756502517091</c:v>
+                  <c:v>0.9226101358573493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8165270950464489</c:v>
+                  <c:v>0.98911590971280472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9759846636317631</c:v>
+                  <c:v>1.0605523919278397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1482119581815602</c:v>
+                  <c:v>1.1377096706522267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3354336863007221</c:v>
+                  <c:v>1.2215844077983466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5405118862749676</c:v>
+                  <c:v>1.3134587873911432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.767215318624225</c:v>
+                  <c:v>1.4150212021249438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.020648194204818</c:v>
+                  <c:v>1.5285583221860206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3079666915123713</c:v>
+                  <c:v>1.6572760927193158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6396515546474819</c:v>
+                  <c:v>1.8058698536587376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0319514827408893</c:v>
+                  <c:v>1.9816189703976543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5120877906707406</c:v>
+                  <c:v>2.196718505192532</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1310911511134041</c:v>
+                  <c:v>2.4740300366652486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0035273871366632</c:v>
+                  <c:v>2.8648786881990436</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4949669836025823</c:v>
+                  <c:v>3.5330388712055534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2869,72 +2913,86 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>370</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>740</c:v>
+                  <c:v>814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1110</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1480</c:v>
+                  <c:v>1628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1850</c:v>
+                  <c:v>2035</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2220</c:v>
+                  <c:v>2442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2590</c:v>
+                  <c:v>2849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2960</c:v>
+                  <c:v>3256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3330</c:v>
+                  <c:v>3663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3700</c:v>
+                  <c:v>4070</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4070.0000000000005</c:v>
+                  <c:v>4477</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4440</c:v>
+                  <c:v>4884</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4810</c:v>
+                  <c:v>5291</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5180</c:v>
+                  <c:v>5698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5550</c:v>
+                  <c:v>6105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5920</c:v>
+                  <c:v>6512</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6290</c:v>
+                  <c:v>6919</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6660</c:v>
+                  <c:v>7326</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7030</c:v>
+                  <c:v>7733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C9D-4E33-A879-C694528A4F3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="93661056"/>
         <c:axId val="95236480"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -2971,61 +3029,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.44146958930700103</c:v>
+                  <c:v>0.19777696816024884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90681372939702864</c:v>
+                  <c:v>0.40624965893520154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3987630530787265</c:v>
+                  <c:v>0.62664138711512518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5292085977388956</c:v>
+                  <c:v>0.8603981391795098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6680756502517091</c:v>
+                  <c:v>0.9226101358573493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8165270950464489</c:v>
+                  <c:v>0.98911590971280472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9759846636317631</c:v>
+                  <c:v>1.0605523919278397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1482119581815602</c:v>
+                  <c:v>1.1377096706522267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3354336863007221</c:v>
+                  <c:v>1.2215844077983466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5405118862749676</c:v>
+                  <c:v>1.3134587873911432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.767215318624225</c:v>
+                  <c:v>1.4150212021249438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.020648194204818</c:v>
+                  <c:v>1.5285583221860206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3079666915123713</c:v>
+                  <c:v>1.6572760927193158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6396515546474819</c:v>
+                  <c:v>1.8058698536587376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0319514827408893</c:v>
+                  <c:v>1.9816189703976543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5120877906707406</c:v>
+                  <c:v>2.196718505192532</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1310911511134041</c:v>
+                  <c:v>2.4740300366652486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0035273871366632</c:v>
+                  <c:v>2.8648786881990436</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4949669836025823</c:v>
+                  <c:v>3.5330388712055534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3037,66 +3095,71 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3.4336598699730607</c:v>
+                  <c:v>8.2567264352403118</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.734639479892243</c:v>
+                  <c:v>33.026905740961247</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.902938829757542</c:v>
+                  <c:v>74.31053791716279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.938557919568971</c:v>
+                  <c:v>132.10762296384499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.84149674932651</c:v>
+                  <c:v>206.41816088100776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>123.61175531903017</c:v>
+                  <c:v>297.24215166865116</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>168.24933362867992</c:v>
+                  <c:v>404.57959532677523</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>219.75423167827589</c:v>
+                  <c:v>528.43049185537996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>278.12644946781785</c:v>
+                  <c:v>668.79484125446527</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343.36598699730604</c:v>
+                  <c:v>825.67264352403106</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>415.47284426674031</c:v>
+                  <c:v>999.06389866407767</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>494.44702127612067</c:v>
+                  <c:v>1188.9686066746046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>580.28851802544705</c:v>
+                  <c:v>1395.3867675556128</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>672.99733451471968</c:v>
+                  <c:v>1618.3183813071009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>772.57347074393851</c:v>
+                  <c:v>1857.7634479290703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>879.01692671310354</c:v>
+                  <c:v>2113.7219674215198</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>992.3277024222142</c:v>
+                  <c:v>2386.1939397844508</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1112.5057978712714</c:v>
+                  <c:v>2675.1793650178611</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1239.5512130602747</c:v>
+                  <c:v>2980.6782431217521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C9D-4E33-A879-C694528A4F3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3121,61 +3184,61 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.44146958930700103</c:v>
+                  <c:v>0.19777696816024884</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.90681372939702864</c:v>
+                  <c:v>0.40624965893520154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3987630530787265</c:v>
+                  <c:v>0.62664138711512518</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5292085977388956</c:v>
+                  <c:v>0.8603981391795098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6680756502517091</c:v>
+                  <c:v>0.9226101358573493</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8165270950464489</c:v>
+                  <c:v>0.98911590971280472</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9759846636317631</c:v>
+                  <c:v>1.0605523919278397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1482119581815602</c:v>
+                  <c:v>1.1377096706522267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3354336863007221</c:v>
+                  <c:v>1.2215844077983466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5405118862749676</c:v>
+                  <c:v>1.3134587873911432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.767215318624225</c:v>
+                  <c:v>1.4150212021249438</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.020648194204818</c:v>
+                  <c:v>1.5285583221860206</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3079666915123713</c:v>
+                  <c:v>1.6572760927193158</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6396515546474819</c:v>
+                  <c:v>1.8058698536587376</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0319514827408893</c:v>
+                  <c:v>1.9816189703976543</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5120877906707406</c:v>
+                  <c:v>2.196718505192532</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.1310911511134041</c:v>
+                  <c:v>2.4740300366652486</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.0035273871366632</c:v>
+                  <c:v>2.8648786881990436</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.4949669836025823</c:v>
+                  <c:v>3.5330388712055534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3187,67 +3250,80 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>20.436046511627907</c:v>
+                  <c:v>73.127600554785019</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.36046511627907</c:v>
+                  <c:v>69.278779472954227</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.139534883720927</c:v>
+                  <c:v>65.429958391123435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.83720930232559</c:v>
+                  <c:v>246.3245492371706</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.534883720930239</c:v>
+                  <c:v>230.92926490984743</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.232558139534881</c:v>
+                  <c:v>215.53398058252426</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.930232558139537</c:v>
+                  <c:v>200.13869625520113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.627906976744185</c:v>
+                  <c:v>184.74341192787793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.325581395348841</c:v>
+                  <c:v>169.34812760055479</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43.02325581395349</c:v>
+                  <c:v>153.95284327323162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>38.720930232558139</c:v>
+                  <c:v>138.55755894590845</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.418604651162795</c:v>
+                  <c:v>123.1622746185853</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.11627906976744</c:v>
+                  <c:v>107.76699029126213</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.813953488372096</c:v>
+                  <c:v>92.371705963938993</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.511627906976745</c:v>
+                  <c:v>76.976421636615811</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17.209302325581394</c:v>
+                  <c:v>61.581137309292636</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.906976744186048</c:v>
+                  <c:v>46.185852981969497</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.604651162790697</c:v>
+                  <c:v>30.790568654646318</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.3023255813953529</c:v>
+                  <c:v>15.395284327323175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C9D-4E33-A879-C694528A4F3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="95239168"/>
         <c:axId val="96490624"/>
       </c:scatterChart>
@@ -3256,6 +3332,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3292,6 +3369,7 @@
               <c:y val="0.93890201224847047"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3300,6 +3378,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3335,6 +3415,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3381,6 +3462,7 @@
               <c:y val="0.44632886167007035"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3389,6 +3471,8 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3427,6 +3511,8 @@
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
         <c:crossAx val="96490624"/>
         <c:crosses val="autoZero"/>
@@ -3437,6 +3523,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
@@ -3511,6 +3598,7 @@
               <c:y val="0.34815234211891249"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
             <a:ln w="25400">
@@ -3520,6 +3608,7 @@
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -3637,6 +3726,7 @@
           <c:h val="0.19327146179122273"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
@@ -3668,6 +3758,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3706,8 +3797,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3733,7 +3834,9 @@
           <c:y val="9.9502487562189261E-3"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3748,6 +3851,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="0"/>
@@ -3793,61 +3897,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44146958930700103</c:v>
+                  <c:v>0.19777696816024884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90681372939702864</c:v>
+                  <c:v>0.40624965893520154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3987630530787265</c:v>
+                  <c:v>0.62664138711512518</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5292085977388956</c:v>
+                  <c:v>0.8603981391795098</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6680756502517091</c:v>
+                  <c:v>0.9226101358573493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8165270950464489</c:v>
+                  <c:v>0.98911590971280472</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9759846636317631</c:v>
+                  <c:v>1.0605523919278397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1482119581815602</c:v>
+                  <c:v>1.1377096706522267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3354336863007221</c:v>
+                  <c:v>1.2215844077983466</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5405118862749676</c:v>
+                  <c:v>1.3134587873911432</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.767215318624225</c:v>
+                  <c:v>1.4150212021249438</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.020648194204818</c:v>
+                  <c:v>1.5285583221860206</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3079666915123713</c:v>
+                  <c:v>1.6572760927193158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6396515546474819</c:v>
+                  <c:v>1.8058698536587376</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.0319514827408893</c:v>
+                  <c:v>1.9816189703976543</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5120877906707406</c:v>
+                  <c:v>2.196718505192532</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1310911511134041</c:v>
+                  <c:v>2.4740300366652486</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.0035273871366632</c:v>
+                  <c:v>2.8648786881990436</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.4949669836025823</c:v>
+                  <c:v>3.5330388712055534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3859,70 +3963,83 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>21.511627906976745</c:v>
+                  <c:v>76.976421636615811</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20.436046511627907</c:v>
+                  <c:v>73.127600554785019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.36046511627907</c:v>
+                  <c:v>69.278779472954227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.139534883720927</c:v>
+                  <c:v>65.429958391123435</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.83720930232559</c:v>
+                  <c:v>246.3245492371706</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.534883720930239</c:v>
+                  <c:v>230.92926490984743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.232558139534881</c:v>
+                  <c:v>215.53398058252426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.930232558139537</c:v>
+                  <c:v>200.13869625520113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.627906976744185</c:v>
+                  <c:v>184.74341192787793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.325581395348841</c:v>
+                  <c:v>169.34812760055479</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.02325581395349</c:v>
+                  <c:v>153.95284327323162</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>38.720930232558139</c:v>
+                  <c:v>138.55755894590845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.418604651162795</c:v>
+                  <c:v>123.1622746185853</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.11627906976744</c:v>
+                  <c:v>107.76699029126213</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.813953488372096</c:v>
+                  <c:v>92.371705963938993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.511627906976745</c:v>
+                  <c:v>76.976421636615811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.209302325581394</c:v>
+                  <c:v>61.581137309292636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.906976744186048</c:v>
+                  <c:v>46.185852981969497</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.604651162790697</c:v>
+                  <c:v>30.790568654646318</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.3023255813953529</c:v>
+                  <c:v>15.395284327323175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3121-4928-AD8E-766C0EE7811D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="180354048"/>
         <c:axId val="180630272"/>
       </c:scatterChart>
@@ -3931,6 +4048,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -3956,8 +4074,11 @@
               <c:y val="0.90653034042386449"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3978,6 +4099,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3996,8 +4118,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -4026,6 +4151,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4067,6 +4193,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="71701" name="Picture 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015180100}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -4115,7 +4246,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="71702" name="Chart 4"/>
+        <xdr:cNvPr id="71702" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4147,22 +4284,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71703" name="Group 31"/>
+        <xdr:cNvPr id="71703" name="Group 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="276225" y="1781175"/>
-          <a:ext cx="381000" cy="552450"/>
+          <a:off x="278130" y="1764030"/>
+          <a:ext cx="381000" cy="546735"/>
           <a:chOff x="46" y="133"/>
           <a:chExt cx="40" cy="59"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71711" name="AutoShape 23"/>
+          <xdr:cNvPr id="71711" name="AutoShape 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F180100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4194,7 +4343,13 @@
       </xdr:sp>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="71712" name="Group 22"/>
+          <xdr:cNvPr id="71712" name="Group 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020180100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr>
             <a:grpSpLocks/>
           </xdr:cNvGrpSpPr>
@@ -4209,7 +4364,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71713" name="Oval 10"/>
+            <xdr:cNvPr id="71713" name="Oval 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021180100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4237,7 +4398,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71714" name="Rectangle 7"/>
+            <xdr:cNvPr id="71714" name="Rectangle 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022180100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4265,7 +4432,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71715" name="Oval 9"/>
+            <xdr:cNvPr id="71715" name="Oval 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023180100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeArrowheads="1"/>
             </xdr:cNvSpPr>
@@ -4293,7 +4466,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="71716" name="Line 11"/>
+            <xdr:cNvPr id="71716" name="Line 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024180100}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr>
               <a:spLocks noChangeShapeType="1"/>
             </xdr:cNvSpPr>
@@ -4336,7 +4515,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71704" name="Oval 5"/>
+        <xdr:cNvPr id="71704" name="Oval 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4379,7 +4564,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71705" name="AutoShape 12"/>
+        <xdr:cNvPr id="71705" name="AutoShape 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4534,7 +4725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71706" name="AutoShape 28"/>
+        <xdr:cNvPr id="71706" name="AutoShape 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4577,22 +4774,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71707" name="Group 34"/>
+        <xdr:cNvPr id="71707" name="Group 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B180100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="323850" y="2809875"/>
-          <a:ext cx="371475" cy="657225"/>
+          <a:off x="325755" y="2781300"/>
+          <a:ext cx="371475" cy="649605"/>
           <a:chOff x="51" y="339"/>
           <a:chExt cx="39" cy="70"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71708" name="Rectangle 6"/>
+          <xdr:cNvPr id="71708" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C180100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4620,7 +4829,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71709" name="AutoShape 26"/>
+          <xdr:cNvPr id="71709" name="AutoShape 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D180100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4648,7 +4863,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71710" name="AutoShape 33"/>
+          <xdr:cNvPr id="71710" name="AutoShape 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E180100}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4779,6 +5000,180 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Option Button 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380DA51B-A43D-1C97-F027-753909DFC073}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Brushed</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>30480</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>121920</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Option Button 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3818E0E9-87D6-1504-3801-043E2EA4BF8A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-IN" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Tahoma"/>
+                  <a:ea typeface="Tahoma"/>
+                  <a:cs typeface="Tahoma"/>
+                </a:rPr>
+                <a:t>Brushless</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fLocksWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4799,7 +5194,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4820,9 +5221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4860,7 +5261,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4894,6 +5295,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4928,9 +5330,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5103,24 +5506,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="58.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="6" max="6" width="59.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="6" max="6" width="59.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="7.5" customHeight="1">
+    <row r="1" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5143,9 +5546,9 @@
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="83" t="s">
         <v>109</v>
       </c>
       <c r="C2" s="18"/>
@@ -5168,15 +5571,15 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:21" ht="44.25" customHeight="1">
+    <row r="3" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -5193,15 +5596,15 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" ht="30" customHeight="1">
+    <row r="4" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="103"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5218,15 +5621,15 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" ht="31.5" customHeight="1">
+    <row r="5" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -5243,15 +5646,15 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:21" ht="30" customHeight="1">
+    <row r="6" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -5268,15 +5671,15 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:21" ht="30.6" customHeight="1">
+    <row r="7" spans="1:21" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="109"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -5293,15 +5696,15 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:21" ht="34.5" customHeight="1">
+    <row r="8" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="105"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5318,15 +5721,15 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:21" ht="15" customHeight="1">
+    <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="113" t="s">
+      <c r="B9" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -5343,15 +5746,15 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1">
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="118"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -5368,15 +5771,15 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" ht="31.15" customHeight="1">
+    <row r="11" spans="1:21" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
-      <c r="B11" s="107" t="s">
+      <c r="B11" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="102"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5393,15 +5796,15 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:21" ht="29.25" customHeight="1">
+    <row r="12" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5418,15 +5821,15 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:21" ht="27.75" customHeight="1">
+    <row r="13" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5443,15 +5846,15 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:21" ht="17.45" customHeight="1">
+    <row r="14" spans="1:21" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="120"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="121"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5468,7 +5871,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:21" ht="7.9" customHeight="1">
+    <row r="15" spans="1:21" ht="7.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
@@ -5491,14 +5894,14 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -5516,7 +5919,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
       <c r="C17" s="24" t="s">
@@ -5545,7 +5948,7 @@
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="18"/>
       <c r="C18" s="25" t="s">
@@ -5574,7 +5977,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="26" t="s">
@@ -5604,7 +6007,7 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5627,7 +6030,7 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -5650,7 +6053,7 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -5673,7 +6076,7 @@
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -5696,7 +6099,7 @@
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -5719,7 +6122,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -5742,7 +6145,7 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -5765,7 +6168,7 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -5788,7 +6191,7 @@
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -5811,7 +6214,7 @@
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -5834,7 +6237,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
@@ -5857,7 +6260,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -5880,7 +6283,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5922,7 +6325,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D19">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$G20&lt;D$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5933,42 +6336,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:AH68"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.109375" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="14" max="14" width="2.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" customWidth="1"/>
-    <col min="21" max="25" width="8.85546875" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" customWidth="1"/>
-    <col min="27" max="28" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1"/>
+    <col min="21" max="25" width="8.88671875" customWidth="1"/>
+    <col min="26" max="26" width="8.33203125" customWidth="1"/>
+    <col min="27" max="28" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="6" customHeight="1">
+    <row r="1" spans="1:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5989,2660 +6392,2704 @@
       <c r="R1" s="17"/>
       <c r="S1" s="17"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
       <c r="AH1" s="1"/>
     </row>
-    <row r="2" spans="1:34" ht="21.75" customHeight="1">
+    <row r="2" spans="1:34" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
-      <c r="B2" s="146" t="s">
+      <c r="B2" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="137"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
       <c r="AH2" s="1"/>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="9" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-    </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="156" t="s">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+    </row>
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="166"/>
+      <c r="D4" s="123"/>
       <c r="E4" s="34">
         <v>4500</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="150" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="165" t="s">
+      <c r="I4" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="170"/>
-      <c r="K4" s="166"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="123"/>
       <c r="L4" s="37">
-        <v>14.8</v>
-      </c>
-      <c r="M4" s="44" t="s">
+        <v>22.2</v>
+      </c>
+      <c r="M4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="42"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-    </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="161" t="s">
+      <c r="N4" s="17"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+    </row>
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="162"/>
+      <c r="D5" s="118"/>
       <c r="E5" s="34">
         <v>0</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="161" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="168"/>
-      <c r="K5" s="162"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="118"/>
       <c r="L5" s="38">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="47" t="s">
+        <v>550</v>
+      </c>
+      <c r="M5" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="46"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-    </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A6" s="42"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="161" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="45"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+    </row>
+    <row r="6" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="162"/>
+      <c r="D6" s="118"/>
       <c r="E6" s="36">
         <v>0</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="161" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="168"/>
-      <c r="K6" s="162"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="118"/>
       <c r="L6" s="38">
-        <v>140</v>
-      </c>
-      <c r="M6" s="47" t="s">
+        <v>24.1</v>
+      </c>
+      <c r="M6" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="42"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-    </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="157"/>
-      <c r="C7" s="161" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+    </row>
+    <row r="7" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="48">
+      <c r="D7" s="118"/>
+      <c r="E7" s="47">
         <f>0.5*E8*(E5^2)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="171" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="168"/>
-      <c r="K7" s="162"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="38">
         <v>10</v>
       </c>
-      <c r="M7" s="47" t="str">
+      <c r="M7" s="46" t="str">
         <f>IF('Data Table'!$A$2=1,"- n/a -","magnets")</f>
         <v>magnets</v>
       </c>
-      <c r="N7" s="42"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-    </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="163" t="s">
+      <c r="N7" s="17"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="45"/>
+      <c r="Z7" s="45"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+    </row>
+    <row r="8" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="51">
+      <c r="D8" s="121"/>
+      <c r="E8" s="50">
         <f>3.14159*(E5^2)*(E6/1000)*E4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="163" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="169"/>
-      <c r="K8" s="164"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="121"/>
       <c r="L8" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="M8" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-    </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-      <c r="AE9" s="42"/>
-      <c r="AF9" s="42"/>
-      <c r="AG9" s="42"/>
-    </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="153" t="s">
+      <c r="N8" s="17"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+    </row>
+    <row r="9" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+    </row>
+    <row r="10" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="166"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="2">
-        <v>4500</v>
-      </c>
-      <c r="F10" s="43" t="s">
+        <v>7800</v>
+      </c>
+      <c r="F10" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55" t="s">
+      <c r="G10" s="53"/>
+      <c r="H10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="165" t="s">
+      <c r="I10" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="170"/>
-      <c r="K10" s="166"/>
+      <c r="J10" s="130"/>
+      <c r="K10" s="123"/>
       <c r="L10" s="38">
         <v>1024</v>
       </c>
-      <c r="M10" s="56" t="str">
+      <c r="M10" s="55" t="str">
         <f>IF('Data Table'!$A$2=1,"- n/a -","μ-sec")</f>
         <v>μ-sec</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-      <c r="AA10" s="46"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-    </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="42"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="161" t="s">
+      <c r="N10" s="17"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+    </row>
+    <row r="11" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="162"/>
+      <c r="D11" s="118"/>
       <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="90" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="57" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="163" t="s">
+      <c r="I11" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="169"/>
-      <c r="K11" s="164"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="121"/>
       <c r="L11" s="41">
         <v>0.25</v>
       </c>
-      <c r="M11" s="58" t="str">
+      <c r="M11" s="57" t="str">
         <f>IF('Data Table'!$A$2=1,"- n/a -","pulse")</f>
         <v>pulse</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="46"/>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-      <c r="AE11" s="42"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="42"/>
-    </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A12" s="42"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="161" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="45"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+    </row>
+    <row r="12" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="162"/>
+      <c r="D12" s="118"/>
       <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="90" t="s">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-    </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="161" t="s">
+      <c r="G12" s="17"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+    </row>
+    <row r="13" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="162"/>
+      <c r="D13" s="118"/>
       <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="150" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="165" t="s">
+      <c r="I13" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="170"/>
-      <c r="K13" s="166"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="123"/>
       <c r="L13" s="32">
         <v>0.95</v>
       </c>
-      <c r="M13" s="68" t="s">
+      <c r="M13" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="42"/>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="42"/>
-    </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="161" t="s">
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+    </row>
+    <row r="14" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="162"/>
-      <c r="E14" s="62">
+      <c r="D14" s="118"/>
+      <c r="E14" s="59">
         <f>0.5*E15*(E12^2+(E12-(E13/1000))^2)</f>
+        <v>9.0421243380000051E-3</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="117" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="125"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="63">
+        <f>VLOOKUP($L$13,'Data Table'!$F$6:$I$24,3,FALSE)</f>
+        <v>7733</v>
+      </c>
+      <c r="M14" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="161" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="168"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="69">
-        <f>VLOOKUP($L$13,'Data Table'!$F$6:$I$24,3,FALSE)</f>
-        <v>7030</v>
-      </c>
-      <c r="M14" s="63" t="s">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+    </row>
+    <row r="15" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="121"/>
+      <c r="E15" s="60">
+        <f>3.14159*E10*E11*(E12^2-((E12-(E13/1000))^2))</f>
+        <v>4.4107923600000021</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="125"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="64">
+        <f>ROUND(MAX($E$12,$E$5,$E$25,($E$18/2))*(2*3.14159)*(L14/60),0)</f>
+        <v>97</v>
+      </c>
+      <c r="M15" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+    </row>
+    <row r="16" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="125"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="63">
+        <f>VLOOKUP($L$13,'Data Table'!$F$6:$I$24,4,FALSE)</f>
+        <v>2980.6782431217521</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="61"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+    </row>
+    <row r="17" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="142" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="123"/>
+      <c r="E17" s="34">
         <v>0</v>
       </c>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="42"/>
-    </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="155"/>
-      <c r="C15" s="163" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="65">
-        <f>3.14159*E10*E11*(E12^2-((E12-(E13/1000))^2))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="168"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="70">
-        <f>ROUND(MAX($E$12,$E$5,$E$25,($E$18/2))*(2*3.14159)*(L14/60),0)</f>
-        <v>88</v>
-      </c>
-      <c r="M15" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-    </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="168"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="69">
-        <f>VLOOKUP($L$13,'Data Table'!$F$6:$I$24,4,FALSE)</f>
-        <v>1239.5512130602747</v>
-      </c>
-      <c r="M16" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-    </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="156" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="165" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="34">
-        <v>7800</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="163" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="169"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="73">
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="67">
         <f>VLOOKUP($L$13,'Data Table'!$F$6:$I$24,2,FALSE)</f>
-        <v>7.4949669836025823</v>
-      </c>
-      <c r="M17" s="74" t="s">
+        <v>3.5330388712055534</v>
+      </c>
+      <c r="M17" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="60"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-    </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A18" s="42"/>
-      <c r="B18" s="157"/>
-      <c r="C18" s="161" t="s">
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+    </row>
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="143"/>
+      <c r="C18" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="162"/>
+      <c r="D18" s="118"/>
       <c r="E18" s="35">
         <v>0.24</v>
       </c>
-      <c r="F18" s="90" t="s">
+      <c r="F18" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-    </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="161" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+    </row>
+    <row r="19" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="162"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="35">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F19" s="90" t="s">
+      <c r="F19" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="150" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="173" t="s">
+      <c r="I19" s="129" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="170"/>
-      <c r="K19" s="166"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="123"/>
       <c r="L19" s="34">
         <v>8</v>
       </c>
-      <c r="M19" s="56" t="s">
+      <c r="M19" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="N19" s="42"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="60"/>
-      <c r="T19" s="60"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-    </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="161" t="s">
+      <c r="N19" s="17"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+    </row>
+    <row r="20" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="162"/>
+      <c r="D20" s="118"/>
       <c r="E20" s="36">
         <v>12</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="161" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="168"/>
-      <c r="K20" s="162"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="118"/>
       <c r="L20" s="34">
         <v>3</v>
       </c>
-      <c r="M20" s="63" t="s">
+      <c r="M20" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="60"/>
-      <c r="T20" s="60"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-    </row>
-    <row r="21" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="161" t="s">
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+    </row>
+    <row r="21" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="72">
+      <c r="D21" s="118"/>
+      <c r="E21" s="66">
         <f>(E22/12)*(E18^2+E19^2)</f>
-        <v>4.5499353120000002E-3</v>
-      </c>
-      <c r="F21" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="161" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="168"/>
-      <c r="K21" s="162"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="118"/>
       <c r="L21" s="34">
-        <v>6</v>
-      </c>
-      <c r="M21" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="60"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-    </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="163" t="s">
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+    </row>
+    <row r="22" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="164"/>
-      <c r="E22" s="51">
+      <c r="D22" s="121"/>
+      <c r="E22" s="50">
         <f>E18*E19*(E20/1000)*E17</f>
-        <v>0.92102399999999995</v>
-      </c>
-      <c r="F22" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="163" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="169"/>
-      <c r="K22" s="164"/>
-      <c r="L22" s="51">
+      <c r="J22" s="120"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="50">
         <f>('Data Table'!I24/(1800*L4))*L21+('Data Table'!$G$2*0.05)*(L20/60)</f>
-        <v>0.49429448020946898</v>
-      </c>
-      <c r="M22" s="93" t="s">
+        <v>1.366496597371514</v>
+      </c>
+      <c r="M22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N22" s="42"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-    </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="60"/>
-      <c r="T23" s="60"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-    </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="42"/>
-      <c r="B24" s="160" t="s">
+      <c r="N22" s="17"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+    </row>
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+    </row>
+    <row r="24" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="165" t="s">
+      <c r="C24" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="123"/>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="136" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="167"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="136" t="s">
+      <c r="I24" s="147"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="137"/>
-      <c r="M24" s="75" t="s">
+      <c r="L24" s="162"/>
+      <c r="M24" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="42"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="42"/>
-    </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="172" t="s">
+      <c r="N24" s="17"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+    </row>
+    <row r="25" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="164"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="144" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="145"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="138" t="s">
+      <c r="I25" s="116"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="L25" s="139"/>
-      <c r="M25" s="77">
+      <c r="L25" s="164"/>
+      <c r="M25" s="71">
         <v>7800</v>
       </c>
-      <c r="N25" s="42"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="42"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="42"/>
-    </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+    </row>
+    <row r="26" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="40">
         <v>1370</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="72">
         <f>H26/141.69</f>
         <v>9.6689956948267337</v>
       </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="140" t="s">
+      <c r="J26" s="17"/>
+      <c r="K26" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="L26" s="141"/>
-      <c r="M26" s="79">
+      <c r="L26" s="166"/>
+      <c r="M26" s="73">
         <v>4500</v>
       </c>
-      <c r="N26" s="42"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="122" t="s">
+      <c r="N26" s="17"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="148" t="s">
         <v>71</v>
       </c>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="123"/>
-      <c r="T26" s="124"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-    </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="150" t="s">
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="150"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="45"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+    </row>
+    <row r="27" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="165" t="s">
+      <c r="C27" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="73">
+      <c r="D27" s="123"/>
+      <c r="E27" s="67">
         <f>$E$15+$E$8+$E$22</f>
-        <v>0.92102399999999995</v>
-      </c>
-      <c r="F27" s="56" t="s">
+        <v>4.4107923600000021</v>
+      </c>
+      <c r="F27" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="144" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="115" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="145"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="134" t="s">
+      <c r="I27" s="116"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="135"/>
-      <c r="M27" s="80">
+      <c r="L27" s="161"/>
+      <c r="M27" s="74">
         <v>2760</v>
       </c>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="125"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
-      <c r="S27" s="126"/>
-      <c r="T27" s="127"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-    </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="42"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="163" t="s">
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="151"/>
+      <c r="Q27" s="152"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="45"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="45"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+    </row>
+    <row r="28" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="164"/>
-      <c r="E28" s="82">
+      <c r="D28" s="121"/>
+      <c r="E28" s="76">
         <f>$E$14+$E$7+$E$21+$E$24</f>
-        <v>4.5499353120000002E-3</v>
-      </c>
-      <c r="F28" s="88" t="s">
+        <v>9.0421243380000051E-3</v>
+      </c>
+      <c r="F28" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="40">
         <v>16</v>
       </c>
-      <c r="I28" s="81">
+      <c r="I28" s="75">
         <f>H28/39.37</f>
         <v>0.40640081280162565</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="140" t="s">
+      <c r="J28" s="17"/>
+      <c r="K28" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="L28" s="141"/>
-      <c r="M28" s="79">
+      <c r="L28" s="166"/>
+      <c r="M28" s="73">
         <v>1770</v>
       </c>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="128" t="s">
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="Q28" s="129"/>
-      <c r="R28" s="129"/>
-      <c r="S28" s="129"/>
-      <c r="T28" s="130"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="46"/>
-      <c r="Z28" s="46"/>
-      <c r="AA28" s="46"/>
-      <c r="AB28" s="46"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-    </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="144" t="s">
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+    </row>
+    <row r="29" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="I29" s="145"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="134" t="s">
+      <c r="I29" s="116"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="135"/>
-      <c r="M29" s="80">
+      <c r="L29" s="161"/>
+      <c r="M29" s="74">
         <v>1600</v>
       </c>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="131" t="s">
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="42"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="42"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="42"/>
-    </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="42"/>
+      <c r="Q29" s="158"/>
+      <c r="R29" s="158"/>
+      <c r="S29" s="158"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="45"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="45"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+    </row>
+    <row r="30" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="40">
         <v>0.38</v>
       </c>
-      <c r="I30" s="78">
+      <c r="I30" s="72">
         <f>H30/0.4536</f>
         <v>0.83774250440917108</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="142" t="s">
+      <c r="J30" s="17"/>
+      <c r="K30" s="132" t="s">
         <v>56</v>
       </c>
-      <c r="L30" s="143"/>
-      <c r="M30" s="83">
+      <c r="L30" s="133"/>
+      <c r="M30" s="77">
         <v>1200</v>
       </c>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="42"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="42"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="42"/>
-    </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="46"/>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-    </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" ht="13.15" customHeight="1">
-      <c r="A32" s="42"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="46"/>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="42"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="42"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="42"/>
-    </row>
-    <row r="33" spans="1:33" s="1" customFormat="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-    </row>
-    <row r="34" spans="1:33" s="1" customFormat="1">
-      <c r="A34" s="42"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="42"/>
-      <c r="O34" s="42"/>
-      <c r="P34" s="42"/>
-      <c r="Q34" s="42"/>
-      <c r="R34" s="42"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
-      <c r="AB34" s="42"/>
-      <c r="AC34" s="42"/>
-      <c r="AD34" s="42"/>
-      <c r="AE34" s="42"/>
-      <c r="AF34" s="42"/>
-      <c r="AG34" s="42"/>
-    </row>
-    <row r="35" spans="1:33" s="1" customFormat="1">
-      <c r="A35" s="42"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
-      <c r="M35" s="42"/>
-      <c r="N35" s="42"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="42"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
-      <c r="AB35" s="42"/>
-      <c r="AC35" s="42"/>
-      <c r="AD35" s="42"/>
-      <c r="AE35" s="42"/>
-      <c r="AF35" s="42"/>
-      <c r="AG35" s="42"/>
-    </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-    </row>
-    <row r="37" spans="1:33">
-      <c r="A37" s="42"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
-      <c r="M37" s="42"/>
-      <c r="N37" s="42"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="42"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-    </row>
-    <row r="38" spans="1:33">
-      <c r="A38" s="42"/>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
-      <c r="M38" s="42"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="42"/>
-      <c r="P38" s="42"/>
-      <c r="Q38" s="42"/>
-      <c r="R38" s="42"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="42"/>
-      <c r="AC38" s="42"/>
-      <c r="AD38" s="42"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="42"/>
-      <c r="AG38" s="42"/>
-    </row>
-    <row r="39" spans="1:33" ht="13.15" customHeight="1">
-      <c r="A39" s="42"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.6" customHeight="1">
-      <c r="A40" s="42"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="42"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
-      <c r="M41" s="42"/>
-      <c r="N41" s="42"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="42"/>
-      <c r="S41" s="42"/>
-      <c r="T41" s="42"/>
-      <c r="U41" s="42"/>
-      <c r="V41" s="42"/>
-      <c r="W41" s="42"/>
-      <c r="X41" s="42"/>
-      <c r="Y41" s="42"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="42"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="42"/>
-      <c r="AD41" s="42"/>
-      <c r="AE41" s="42"/>
-      <c r="AF41" s="42"/>
-      <c r="AG41" s="42"/>
-    </row>
-    <row r="42" spans="1:33">
-      <c r="A42" s="42"/>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-    </row>
-    <row r="43" spans="1:33">
-      <c r="A43" s="42"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-      <c r="U43" s="42"/>
-      <c r="V43" s="42"/>
-      <c r="W43" s="42"/>
-      <c r="X43" s="42"/>
-      <c r="Y43" s="42"/>
-      <c r="Z43" s="42"/>
-      <c r="AA43" s="42"/>
-      <c r="AB43" s="42"/>
-      <c r="AC43" s="42"/>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="42"/>
-      <c r="AF43" s="42"/>
-      <c r="AG43" s="42"/>
-    </row>
-    <row r="44" spans="1:33">
-      <c r="A44" s="42"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
-      <c r="M44" s="42"/>
-      <c r="N44" s="42"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="42"/>
-      <c r="T44" s="42"/>
-      <c r="U44" s="42"/>
-      <c r="V44" s="42"/>
-      <c r="W44" s="42"/>
-      <c r="X44" s="42"/>
-      <c r="Y44" s="42"/>
-      <c r="Z44" s="42"/>
-      <c r="AA44" s="42"/>
-      <c r="AB44" s="42"/>
-      <c r="AC44" s="42"/>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="42"/>
-      <c r="AF44" s="42"/>
-      <c r="AG44" s="42"/>
-    </row>
-    <row r="45" spans="1:33">
-      <c r="A45" s="42"/>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
-      <c r="M45" s="42"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="42"/>
-      <c r="P45" s="42"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="42"/>
-      <c r="S45" s="42"/>
-      <c r="T45" s="42"/>
-      <c r="U45" s="42"/>
-      <c r="V45" s="42"/>
-      <c r="W45" s="42"/>
-      <c r="X45" s="42"/>
-      <c r="Y45" s="42"/>
-      <c r="Z45" s="42"/>
-      <c r="AA45" s="42"/>
-      <c r="AB45" s="42"/>
-      <c r="AC45" s="42"/>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="42"/>
-      <c r="AF45" s="42"/>
-      <c r="AG45" s="42"/>
-    </row>
-    <row r="46" spans="1:33">
-      <c r="A46" s="42"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="42"/>
-      <c r="T46" s="42"/>
-      <c r="U46" s="42"/>
-      <c r="V46" s="42"/>
-      <c r="W46" s="42"/>
-      <c r="X46" s="42"/>
-      <c r="Y46" s="42"/>
-      <c r="Z46" s="42"/>
-      <c r="AA46" s="42"/>
-      <c r="AB46" s="42"/>
-      <c r="AC46" s="42"/>
-      <c r="AD46" s="42"/>
-      <c r="AE46" s="42"/>
-      <c r="AF46" s="42"/>
-      <c r="AG46" s="42"/>
-    </row>
-    <row r="47" spans="1:33" ht="13.15" customHeight="1">
-      <c r="A47" s="42"/>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
-      <c r="M47" s="42"/>
-      <c r="N47" s="42"/>
-      <c r="O47" s="42"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="42"/>
-      <c r="T47" s="42"/>
-      <c r="U47" s="42"/>
-      <c r="V47" s="42"/>
-      <c r="W47" s="42"/>
-      <c r="X47" s="42"/>
-      <c r="Y47" s="42"/>
-      <c r="Z47" s="42"/>
-      <c r="AA47" s="42"/>
-      <c r="AB47" s="42"/>
-      <c r="AC47" s="42"/>
-      <c r="AD47" s="42"/>
-      <c r="AE47" s="42"/>
-      <c r="AF47" s="42"/>
-      <c r="AG47" s="42"/>
-    </row>
-    <row r="48" spans="1:33">
-      <c r="A48" s="42"/>
-      <c r="B48" s="67"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="42"/>
-      <c r="X48" s="42"/>
-      <c r="Y48" s="42"/>
-      <c r="Z48" s="42"/>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="42"/>
-      <c r="AF48" s="42"/>
-      <c r="AG48" s="42"/>
-    </row>
-    <row r="49" spans="1:33">
-      <c r="A49" s="42"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
-      <c r="M49" s="42"/>
-      <c r="N49" s="42"/>
-      <c r="O49" s="42"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="42"/>
-      <c r="U49" s="42"/>
-      <c r="V49" s="42"/>
-      <c r="W49" s="42"/>
-      <c r="X49" s="42"/>
-      <c r="Y49" s="42"/>
-      <c r="Z49" s="42"/>
-      <c r="AA49" s="42"/>
-      <c r="AB49" s="42"/>
-      <c r="AC49" s="42"/>
-      <c r="AD49" s="42"/>
-      <c r="AE49" s="42"/>
-      <c r="AF49" s="42"/>
-      <c r="AG49" s="42"/>
-    </row>
-    <row r="50" spans="1:33">
-      <c r="A50" s="42"/>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
-      <c r="M50" s="42"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="42"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="42"/>
-      <c r="U50" s="42"/>
-      <c r="V50" s="42"/>
-      <c r="W50" s="42"/>
-      <c r="X50" s="42"/>
-      <c r="Y50" s="42"/>
-      <c r="Z50" s="42"/>
-      <c r="AA50" s="42"/>
-      <c r="AB50" s="42"/>
-      <c r="AC50" s="42"/>
-      <c r="AD50" s="42"/>
-      <c r="AE50" s="42"/>
-      <c r="AF50" s="42"/>
-      <c r="AG50" s="42"/>
-    </row>
-    <row r="51" spans="1:33">
-      <c r="A51" s="42"/>
-      <c r="B51" s="67"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
-      <c r="M51" s="42"/>
-      <c r="N51" s="42"/>
-      <c r="O51" s="42"/>
-      <c r="P51" s="42"/>
-      <c r="Q51" s="42"/>
-      <c r="R51" s="42"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="42"/>
-      <c r="U51" s="42"/>
-      <c r="V51" s="42"/>
-      <c r="W51" s="42"/>
-      <c r="X51" s="42"/>
-      <c r="Y51" s="42"/>
-      <c r="Z51" s="42"/>
-      <c r="AA51" s="42"/>
-      <c r="AB51" s="42"/>
-      <c r="AC51" s="42"/>
-      <c r="AD51" s="42"/>
-      <c r="AE51" s="42"/>
-      <c r="AF51" s="42"/>
-      <c r="AG51" s="42"/>
-    </row>
-    <row r="52" spans="1:33">
-      <c r="A52" s="42"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
-      <c r="M52" s="42"/>
-      <c r="N52" s="42"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="42"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="42"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="42"/>
-      <c r="W52" s="42"/>
-      <c r="X52" s="42"/>
-      <c r="Y52" s="42"/>
-      <c r="Z52" s="42"/>
-      <c r="AA52" s="42"/>
-      <c r="AB52" s="42"/>
-      <c r="AC52" s="42"/>
-      <c r="AD52" s="42"/>
-      <c r="AE52" s="42"/>
-      <c r="AF52" s="42"/>
-      <c r="AG52" s="42"/>
-    </row>
-    <row r="53" spans="1:33">
-      <c r="A53" s="42"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="42"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
-      <c r="N53" s="42"/>
-      <c r="O53" s="42"/>
-      <c r="P53" s="42"/>
-      <c r="Q53" s="42"/>
-      <c r="R53" s="42"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="42"/>
-      <c r="U53" s="42"/>
-      <c r="V53" s="42"/>
-      <c r="W53" s="42"/>
-      <c r="X53" s="42"/>
-      <c r="Y53" s="42"/>
-      <c r="Z53" s="42"/>
-      <c r="AA53" s="42"/>
-      <c r="AB53" s="42"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="42"/>
-      <c r="AE53" s="42"/>
-      <c r="AF53" s="42"/>
-      <c r="AG53" s="42"/>
-    </row>
-    <row r="54" spans="1:33">
-      <c r="A54" s="42"/>
-      <c r="B54" s="67"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="67"/>
-      <c r="F54" s="67"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="42"/>
-      <c r="AB54" s="42"/>
-      <c r="AC54" s="42"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
-    </row>
-    <row r="55" spans="1:33">
-      <c r="A55" s="42"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="42"/>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
-      <c r="N55" s="42"/>
-      <c r="O55" s="42"/>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="42"/>
-      <c r="R55" s="42"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="42"/>
-      <c r="AA55" s="42"/>
-      <c r="AB55" s="42"/>
-      <c r="AC55" s="42"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="42"/>
-    </row>
-    <row r="56" spans="1:33">
-      <c r="A56" s="42"/>
-      <c r="B56" s="67"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67"/>
-      <c r="F56" s="67"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="42"/>
-      <c r="S56" s="42"/>
-      <c r="T56" s="42"/>
-      <c r="U56" s="42"/>
-      <c r="V56" s="42"/>
-      <c r="W56" s="42"/>
-      <c r="X56" s="42"/>
-      <c r="Y56" s="42"/>
-      <c r="Z56" s="42"/>
-      <c r="AA56" s="42"/>
-      <c r="AB56" s="42"/>
-      <c r="AC56" s="42"/>
-      <c r="AD56" s="42"/>
-      <c r="AE56" s="42"/>
-      <c r="AF56" s="42"/>
-      <c r="AG56" s="42"/>
-    </row>
-    <row r="57" spans="1:33">
-      <c r="A57" s="42"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="42"/>
-      <c r="Q57" s="42"/>
-      <c r="R57" s="42"/>
-      <c r="S57" s="42"/>
-      <c r="T57" s="42"/>
-      <c r="U57" s="42"/>
-      <c r="V57" s="42"/>
-      <c r="W57" s="42"/>
-      <c r="X57" s="42"/>
-      <c r="Y57" s="42"/>
-      <c r="Z57" s="42"/>
-      <c r="AA57" s="42"/>
-      <c r="AB57" s="42"/>
-      <c r="AC57" s="42"/>
-      <c r="AD57" s="42"/>
-      <c r="AE57" s="42"/>
-      <c r="AF57" s="42"/>
-      <c r="AG57" s="42"/>
-    </row>
-    <row r="58" spans="1:33">
-      <c r="A58" s="42"/>
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-    </row>
-    <row r="59" spans="1:33">
-      <c r="A59" s="42"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-    </row>
-    <row r="60" spans="1:33">
-      <c r="A60" s="42"/>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-    </row>
-    <row r="61" spans="1:33">
-      <c r="A61" s="42"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-    </row>
-    <row r="62" spans="1:33">
-      <c r="A62" s="42"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
-      <c r="F62" s="67"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-    </row>
-    <row r="63" spans="1:33">
-      <c r="A63" s="42"/>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
-      <c r="M63" s="42"/>
-      <c r="N63" s="42"/>
-      <c r="O63" s="42"/>
-      <c r="P63" s="42"/>
-      <c r="Q63" s="42"/>
-      <c r="R63" s="42"/>
-      <c r="S63" s="42"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="42"/>
-      <c r="V63" s="42"/>
-      <c r="W63" s="42"/>
-      <c r="X63" s="42"/>
-      <c r="Y63" s="42"/>
-      <c r="Z63" s="42"/>
-      <c r="AA63" s="42"/>
-      <c r="AB63" s="42"/>
-      <c r="AC63" s="42"/>
-      <c r="AD63" s="42"/>
-      <c r="AE63" s="42"/>
-      <c r="AF63" s="42"/>
-      <c r="AG63" s="42"/>
-    </row>
-    <row r="64" spans="1:33">
-      <c r="A64" s="42"/>
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
-      <c r="M64" s="42"/>
-      <c r="N64" s="42"/>
-      <c r="O64" s="42"/>
-      <c r="P64" s="42"/>
-      <c r="Q64" s="42"/>
-      <c r="R64" s="42"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-      <c r="AB64" s="42"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="42"/>
-      <c r="AE64" s="42"/>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="42"/>
-    </row>
-    <row r="65" spans="1:33">
-      <c r="A65" s="42"/>
-      <c r="B65" s="67"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="42"/>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="42"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="42"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
-      <c r="AB65" s="42"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="42"/>
-      <c r="AE65" s="42"/>
-      <c r="AF65" s="42"/>
-      <c r="AG65" s="42"/>
-    </row>
-    <row r="66" spans="1:33">
-      <c r="A66" s="42"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-      <c r="J66" s="42"/>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
-      <c r="N66" s="42"/>
-      <c r="O66" s="42"/>
-      <c r="P66" s="42"/>
-      <c r="Q66" s="42"/>
-      <c r="R66" s="42"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="42"/>
-      <c r="AA66" s="42"/>
-      <c r="AB66" s="42"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="42"/>
-      <c r="AE66" s="42"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="42"/>
-    </row>
-    <row r="67" spans="1:33">
-      <c r="A67" s="42"/>
-      <c r="B67" s="67"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
-      <c r="M67" s="42"/>
-      <c r="N67" s="42"/>
-      <c r="O67" s="42"/>
-      <c r="P67" s="42"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-      <c r="AA67" s="42"/>
-      <c r="AB67" s="42"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="42"/>
-      <c r="AE67" s="42"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
-    </row>
-    <row r="68" spans="1:33">
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
-      <c r="M68" s="42"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="45"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="45"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+    </row>
+    <row r="31" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+    </row>
+    <row r="32" spans="1:33" s="1" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+    </row>
+    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+    </row>
+    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+    </row>
+    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+    </row>
+    <row r="36" spans="1:33" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="17"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
+      <c r="AD38" s="17"/>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+    </row>
+    <row r="39" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
+      <c r="AD40" s="17"/>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
+      <c r="AD41" s="17"/>
+      <c r="AE41" s="17"/>
+      <c r="AF41" s="17"/>
+      <c r="AG41" s="17"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="17"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="17"/>
+      <c r="AD42" s="17"/>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="17"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
+      <c r="AD44" s="17"/>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="17"/>
+      <c r="AF45" s="17"/>
+      <c r="AG45" s="17"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="17"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
+      <c r="AD46" s="17"/>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+    </row>
+    <row r="47" spans="1:33" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
+      <c r="AD47" s="17"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="17"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
+      <c r="X49" s="17"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
+      <c r="AG49" s="17"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="17"/>
+      <c r="X50" s="17"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="17"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="17"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="17"/>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="17"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="17"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="17"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="17"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="17"/>
+      <c r="AF53" s="17"/>
+      <c r="AG53" s="17"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="17"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="17"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="17"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="17"/>
+      <c r="AD56" s="17"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="17"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="17"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
+      <c r="V59" s="17"/>
+      <c r="W59" s="17"/>
+      <c r="X59" s="17"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
+      <c r="AG59" s="17"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="17"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="17"/>
+      <c r="X60" s="17"/>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="17"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="17"/>
+      <c r="U61" s="17"/>
+      <c r="V61" s="17"/>
+      <c r="W61" s="17"/>
+      <c r="X61" s="17"/>
+      <c r="Y61" s="17"/>
+      <c r="Z61" s="17"/>
+      <c r="AA61" s="17"/>
+      <c r="AB61" s="17"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="17"/>
+      <c r="AF61" s="17"/>
+      <c r="AG61" s="17"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="17"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="17"/>
+      <c r="X62" s="17"/>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="17"/>
+      <c r="AD62" s="17"/>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="17"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="17"/>
+      <c r="U63" s="17"/>
+      <c r="V63" s="17"/>
+      <c r="W63" s="17"/>
+      <c r="X63" s="17"/>
+      <c r="Y63" s="17"/>
+      <c r="Z63" s="17"/>
+      <c r="AA63" s="17"/>
+      <c r="AB63" s="17"/>
+      <c r="AC63" s="17"/>
+      <c r="AD63" s="17"/>
+      <c r="AE63" s="17"/>
+      <c r="AF63" s="17"/>
+      <c r="AG63" s="17"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="17"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="17"/>
+      <c r="X64" s="17"/>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="17"/>
+      <c r="AD64" s="17"/>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="17"/>
+      <c r="U65" s="17"/>
+      <c r="V65" s="17"/>
+      <c r="W65" s="17"/>
+      <c r="X65" s="17"/>
+      <c r="Y65" s="17"/>
+      <c r="Z65" s="17"/>
+      <c r="AA65" s="17"/>
+      <c r="AB65" s="17"/>
+      <c r="AC65" s="17"/>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="17"/>
+      <c r="AF65" s="17"/>
+      <c r="AG65" s="17"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="17"/>
+      <c r="X66" s="17"/>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="17"/>
+      <c r="AD66" s="17"/>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A67" s="17"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="17"/>
+      <c r="U67" s="17"/>
+      <c r="V67" s="17"/>
+      <c r="W67" s="17"/>
+      <c r="X67" s="17"/>
+      <c r="Y67" s="17"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
+      <c r="AE67" s="17"/>
+      <c r="AF67" s="17"/>
+      <c r="AG67" s="17"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="60">
+    <mergeCell ref="P26:T27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B2:T2"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="I17:K17"/>
@@ -8659,54 +9106,10 @@
     <mergeCell ref="H19:H22"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B2:T2"/>
-    <mergeCell ref="H13:H17"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="P26:T27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P26:S27" r:id="rId1" display="Run Amok Combat Robotics"/>
+    <hyperlink ref="P26:S27" r:id="rId1" display="Run Amok Combat Robotics" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8714,8 +9117,58 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
-  <extLst xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-    <ext uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId5" name="Option Button 11">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>121920</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId6" name="Option Button 13">
+              <controlPr locked="0" defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>30480</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>121920</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>114300</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{ED985250-5720-4C99-9B1F-74315CD9B5EE}">
@@ -8755,9 +9208,9 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
-    <ext uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Data Table'!$F$6:$F$24</xm:f>
           </x14:formula1>
@@ -8770,25 +9223,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>92</v>
       </c>
@@ -8820,48 +9273,48 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2</v>
       </c>
       <c r="B2" s="5">
         <f>((((Calculations!L4*Calculations!L5)/Calculations!$L$8)*0.105)/($F$2*Calculations!$L$8))*Calculations!$E$28</f>
-        <v>2.1516925096068227</v>
+        <v>0.96395138254295576</v>
       </c>
       <c r="C2" s="5">
         <f>B2*(1/Calculations!$L$11)</f>
-        <v>8.6067700384272907</v>
+        <v>3.855805530171823</v>
       </c>
       <c r="D2" s="6">
         <f>(Calculations!L4*Calculations!L5)/Calculations!L8</f>
-        <v>7400</v>
-      </c>
-      <c r="E2" s="94">
+        <v>8140</v>
+      </c>
+      <c r="E2" s="87">
         <f>Calculations!$E$28</f>
-        <v>4.5499353120000002E-3</v>
+        <v>9.0421243380000051E-3</v>
       </c>
       <c r="F2" s="5">
         <f>((1352/Calculations!$L$5)*(Calculations!$L$4/(J2/1000)))/(141.61)</f>
-        <v>0.82151602090904774</v>
+        <v>5.3448779068095886</v>
       </c>
       <c r="G2" s="6">
         <f>1000*Calculations!L4/J2</f>
-        <v>86.04651162790698</v>
+        <v>307.90568654646324</v>
       </c>
       <c r="H2" s="6">
         <f>Calculations!L8</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I2" s="6">
         <f>IF(A2=1,0,(60/(Calculations!L7*3*(Calculations!L10/1000000)))/$H$2)</f>
-        <v>976.56250000000011</v>
+        <v>1302.0833333333335</v>
       </c>
       <c r="J2" s="6">
         <f>Calculations!L6+(Calculations!L19*Calculations!L4/3.7)</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
@@ -8890,7 +9343,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -8917,567 +9370,567 @@
       </c>
       <c r="J5" s="6">
         <f>IF(H5&lt;$I$2,(1-F5)*$G$2/(1/Calculations!$L$11),(1-F5)*$G$2)</f>
-        <v>21.511627906976745</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>76.976421636615811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <f t="shared" ref="B6:B26" si="0">-($B$2*LN(1-F6))</f>
-        <v>0.11036739732675026</v>
+        <v>4.944424204006221E-2</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" ref="C6:C24" si="1">B6-B5</f>
-        <v>0.11036739732675026</v>
+        <v>4.944424204006221E-2</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:D26" si="2">-($C$2*LN(1-F6))</f>
-        <v>0.44146958930700103</v>
+        <v>0.19777696816024884</v>
       </c>
       <c r="E6" s="16">
         <f>D6-D5</f>
-        <v>0.44146958930700103</v>
+        <v>0.19777696816024884</v>
       </c>
       <c r="F6" s="13">
         <v>0.05</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" ref="G6:G24" si="3">IF(H5&lt;$I$2,G5+E6,G5+C6)</f>
-        <v>0.44146958930700103</v>
+        <v>0.19777696816024884</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H26" si="4">$D$2*$F6</f>
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ref="I6:I26" si="5">0.5*$E$2*(H6*0.105)^2</f>
-        <v>3.4336598699730607</v>
+        <v>8.2567264352403118</v>
       </c>
       <c r="J6" s="6">
         <f>IF(H6&lt;$I$2,(1-F6)*$G$2/(1/Calculations!$L$11),(1-F6)*$G$2)</f>
-        <v>20.436046511627907</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>73.127600554785019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>0.22670343234925716</v>
+        <v>0.10156241473380039</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="1"/>
-        <v>0.1163360350225069</v>
+        <v>5.2118172693738175E-2</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="2"/>
-        <v>0.90681372939702864</v>
+        <v>0.40624965893520154</v>
       </c>
       <c r="E7" s="16">
         <f t="shared" ref="E7:E24" si="6">D7-D6</f>
-        <v>0.46534414009002761</v>
+        <v>0.2084726907749527</v>
       </c>
       <c r="F7" s="13">
         <v>0.1</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="3"/>
-        <v>0.90681372939702864</v>
+        <v>0.40624965893520154</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="4"/>
-        <v>740</v>
+        <v>814</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="5"/>
-        <v>13.734639479892243</v>
+        <v>33.026905740961247</v>
       </c>
       <c r="J7" s="6">
         <f>IF(H7&lt;$I$2,(1-F7)*$G$2/(1/Calculations!$L$11),(1-F7)*$G$2)</f>
-        <v>19.36046511627907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>69.278779472954227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>0.34969076326968163</v>
+        <v>0.1566603467787813</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="1"/>
-        <v>0.12298733092042446</v>
+        <v>5.509793204498091E-2</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="2"/>
-        <v>1.3987630530787265</v>
+        <v>0.62664138711512518</v>
       </c>
       <c r="E8" s="16">
         <f t="shared" si="6"/>
-        <v>0.49194932368169786</v>
+        <v>0.22039172817992364</v>
       </c>
       <c r="F8" s="13">
         <v>0.15</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="3"/>
-        <v>1.3987630530787265</v>
+        <v>0.62664138711512518</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="4"/>
-        <v>1110</v>
+        <v>1221</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="5"/>
-        <v>30.902938829757542</v>
+        <v>74.31053791716279</v>
       </c>
       <c r="J8" s="6">
         <f>IF(H8&lt;$I$2,(1-F8)*$G$2/(1/Calculations!$L$11),(1-F8)*$G$2)</f>
-        <v>73.139534883720927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>65.429958391123435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>0.48013630792985068</v>
+        <v>0.21509953479487745</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="1"/>
-        <v>0.13044554466016905</v>
+        <v>5.8439188016096155E-2</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="2"/>
-        <v>1.9205452317194027</v>
+        <v>0.8603981391795098</v>
       </c>
       <c r="E9" s="16">
         <f t="shared" si="6"/>
-        <v>0.52178217864067622</v>
+        <v>0.23375675206438462</v>
       </c>
       <c r="F9" s="13">
         <v>0.2</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="3"/>
-        <v>1.5292085977388956</v>
+        <v>0.8603981391795098</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="4"/>
-        <v>1480</v>
+        <v>1628</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="5"/>
-        <v>54.938557919568971</v>
+        <v>132.10762296384499</v>
       </c>
       <c r="J9" s="6">
         <f>IF(H9&lt;$I$2,(1-F9)*$G$2/(1/Calculations!$L$11),(1-F9)*$G$2)</f>
-        <v>68.83720930232559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>246.3245492371706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>0.61900336044266424</v>
+        <v>0.27731153147271698</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="1"/>
-        <v>0.13886705251281356</v>
+        <v>6.2211996677839526E-2</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="2"/>
-        <v>2.476013441770657</v>
+        <v>1.1092461258908679</v>
       </c>
       <c r="E10" s="16">
         <f t="shared" si="6"/>
-        <v>0.55546821005125424</v>
+        <v>0.2488479867113581</v>
       </c>
       <c r="F10" s="13">
         <v>0.25</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="3"/>
-        <v>1.6680756502517091</v>
+        <v>0.9226101358573493</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="4"/>
-        <v>1850</v>
+        <v>2035</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="5"/>
-        <v>85.84149674932651</v>
+        <v>206.41816088100776</v>
       </c>
       <c r="J10" s="6">
         <f>IF(H10&lt;$I$2,(1-F10)*$G$2/(1/Calculations!$L$11),(1-F10)*$G$2)</f>
-        <v>64.534883720930239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>230.92926490984743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>0.76745480523740406</v>
+        <v>0.3438173053281724</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="1"/>
-        <v>0.14845144479473982</v>
+        <v>6.6505773855455419E-2</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="2"/>
-        <v>3.0698192209496162</v>
+        <v>1.3752692213126896</v>
       </c>
       <c r="E11" s="16">
         <f t="shared" si="6"/>
-        <v>0.59380577917895927</v>
+        <v>0.26602309542182168</v>
       </c>
       <c r="F11" s="13">
         <v>0.3</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>1.8165270950464489</v>
+        <v>0.98911590971280472</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="4"/>
-        <v>2220</v>
+        <v>2442</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="5"/>
-        <v>123.61175531903017</v>
+        <v>297.24215166865116</v>
       </c>
       <c r="J11" s="6">
         <f>IF(H11&lt;$I$2,(1-F11)*$G$2/(1/Calculations!$L$11),(1-F11)*$G$2)</f>
-        <v>60.232558139534881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>215.53398058252426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>0.92691237382271818</v>
+        <v>0.41525378754320735</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="1"/>
-        <v>0.15945756858531412</v>
+        <v>7.1436482215034958E-2</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="2"/>
-        <v>3.7076494952908727</v>
+        <v>1.6610151501728294</v>
       </c>
       <c r="E12" s="16">
         <f t="shared" si="6"/>
-        <v>0.6378302743412565</v>
+        <v>0.28574592886013983</v>
       </c>
       <c r="F12" s="13">
         <v>0.35</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="3"/>
-        <v>1.9759846636317631</v>
+        <v>1.0605523919278397</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="4"/>
-        <v>2590</v>
+        <v>2849</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="5"/>
-        <v>168.24933362867992</v>
+        <v>404.57959532677523</v>
       </c>
       <c r="J12" s="6">
         <f>IF(H12&lt;$I$2,(1-F12)*$G$2/(1/Calculations!$L$11),(1-F12)*$G$2)</f>
-        <v>55.930232558139537</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>200.13869625520113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>1.0991396683725152</v>
+        <v>0.49241106626759451</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" si="1"/>
-        <v>0.17222729454979702</v>
+        <v>7.7157278724387157E-2</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="2"/>
-        <v>4.3965586734900608</v>
+        <v>1.969644265070378</v>
       </c>
       <c r="E13" s="16">
         <f t="shared" si="6"/>
-        <v>0.68890917819918807</v>
+        <v>0.30862911489754863</v>
       </c>
       <c r="F13" s="13">
         <v>0.4</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>2.1482119581815602</v>
+        <v>1.1377096706522267</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="4"/>
-        <v>2960</v>
+        <v>3256</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="5"/>
-        <v>219.75423167827589</v>
+        <v>528.43049185537996</v>
       </c>
       <c r="J13" s="6">
         <f>IF(H13&lt;$I$2,(1-F13)*$G$2/(1/Calculations!$L$11),(1-F13)*$G$2)</f>
-        <v>51.627906976744185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>184.74341192787793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>1.2863613964916769</v>
+        <v>0.57628580341371438</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="1"/>
-        <v>0.18722172811916171</v>
+        <v>8.3874737146119871E-2</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="2"/>
-        <v>5.1454455859667076</v>
+        <v>2.3051432136548575</v>
       </c>
       <c r="E14" s="16">
         <f t="shared" si="6"/>
-        <v>0.74888691247664685</v>
+        <v>0.33549894858447948</v>
       </c>
       <c r="F14" s="13">
         <v>0.45</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="3"/>
-        <v>2.3354336863007221</v>
+        <v>1.2215844077983466</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="4"/>
-        <v>3330</v>
+        <v>3663</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="5"/>
-        <v>278.12644946781785</v>
+        <v>668.79484125446527</v>
       </c>
       <c r="J14" s="6">
         <f>IF(H14&lt;$I$2,(1-F14)*$G$2/(1/Calculations!$L$11),(1-F14)*$G$2)</f>
-        <v>47.325581395348841</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>169.34812760055479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1.4914395964659222</v>
+        <v>0.66816018300651103</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="1"/>
-        <v>0.20507819997424526</v>
+        <v>9.1874379592796651E-2</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" si="2"/>
-        <v>5.9657583858636887</v>
+        <v>2.6726407320260441</v>
       </c>
       <c r="E15" s="16">
         <f t="shared" si="6"/>
-        <v>0.82031279989698103</v>
+        <v>0.3674975183711866</v>
       </c>
       <c r="F15" s="13">
         <v>0.5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="3"/>
-        <v>2.5405118862749676</v>
+        <v>1.3134587873911432</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="4"/>
-        <v>3700</v>
+        <v>4070</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="5"/>
-        <v>343.36598699730604</v>
+        <v>825.67264352403106</v>
       </c>
       <c r="J15" s="6">
         <f>IF(H15&lt;$I$2,(1-F15)*$G$2/(1/Calculations!$L$11),(1-F15)*$G$2)</f>
-        <v>43.02325581395349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>153.95284327323162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>1.7181430288151796</v>
+        <v>0.7697225977403116</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="1"/>
-        <v>0.22670343234925738</v>
+        <v>0.10156241473380057</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" si="2"/>
-        <v>6.8725721152607182</v>
+        <v>3.0788903909612464</v>
       </c>
       <c r="E16" s="16">
         <f t="shared" si="6"/>
-        <v>0.90681372939702953</v>
+        <v>0.40624965893520226</v>
       </c>
       <c r="F16" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="3"/>
-        <v>2.767215318624225</v>
+        <v>1.4150212021249438</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="4"/>
-        <v>4070.0000000000005</v>
+        <v>4477</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="5"/>
-        <v>415.47284426674031</v>
+        <v>999.06389866407767</v>
       </c>
       <c r="J16" s="6">
         <f>IF(H16&lt;$I$2,(1-F16)*$G$2/(1/Calculations!$L$11),(1-F16)*$G$2)</f>
-        <v>38.720930232558139</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>138.55755894590845</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>1.9715759043957728</v>
+        <v>0.88325971780138846</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="1"/>
-        <v>0.25343287558059324</v>
+        <v>0.11353712006107686</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" si="2"/>
-        <v>7.8863036175830912</v>
+        <v>3.5330388712055538</v>
       </c>
       <c r="E17" s="16">
         <f t="shared" si="6"/>
-        <v>1.013731502322373</v>
+        <v>0.45414848024430743</v>
       </c>
       <c r="F17" s="13">
         <v>0.6</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="3"/>
-        <v>3.020648194204818</v>
+        <v>1.5285583221860206</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="4"/>
-        <v>4440</v>
+        <v>4884</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="5"/>
-        <v>494.44702127612067</v>
+        <v>1188.9686066746046</v>
       </c>
       <c r="J17" s="6">
         <f>IF(H17&lt;$I$2,(1-F17)*$G$2/(1/Calculations!$L$11),(1-F17)*$G$2)</f>
-        <v>34.418604651162795</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>123.1622746185853</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>2.2588944017033263</v>
+        <v>1.0119774883346835</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="1"/>
-        <v>0.28731849730755354</v>
+        <v>0.12871777053329503</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" si="2"/>
-        <v>9.0355776068133054</v>
+        <v>4.0479099533387339</v>
       </c>
       <c r="E18" s="16">
         <f t="shared" si="6"/>
-        <v>1.1492739892302142</v>
+        <v>0.51487108213318011</v>
       </c>
       <c r="F18" s="13">
         <v>0.65</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="3"/>
-        <v>3.3079666915123713</v>
+        <v>1.6572760927193158</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="4"/>
-        <v>4810</v>
+        <v>5291</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="5"/>
-        <v>580.28851802544705</v>
+        <v>1395.3867675556128</v>
       </c>
       <c r="J18" s="6">
         <f>IF(H18&lt;$I$2,(1-F18)*$G$2/(1/Calculations!$L$11),(1-F18)*$G$2)</f>
-        <v>30.11627906976744</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>107.76699029126213</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>2.5905792648384369</v>
+        <v>1.1605712492741054</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="1"/>
-        <v>0.33168486313511059</v>
+        <v>0.14859376093942189</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" si="2"/>
-        <v>10.362317059353748</v>
+        <v>4.6422849970964215</v>
       </c>
       <c r="E19" s="16">
         <f t="shared" si="6"/>
-        <v>1.3267394525404423</v>
+        <v>0.59437504375768757</v>
       </c>
       <c r="F19" s="13">
         <v>0.7</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="3"/>
-        <v>3.6396515546474819</v>
+        <v>1.8058698536587376</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="4"/>
-        <v>5180</v>
+        <v>5698</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="5"/>
-        <v>672.99733451471968</v>
+        <v>1618.3183813071009</v>
       </c>
       <c r="J19" s="6">
         <f>IF(H19&lt;$I$2,(1-F19)*$G$2/(1/Calculations!$L$11),(1-F19)*$G$2)</f>
-        <v>25.813953488372096</v>
-      </c>
-      <c r="M19" s="174" t="s">
+        <v>92.371705963938993</v>
+      </c>
+      <c r="M19" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="175"/>
-      <c r="O19" s="176"/>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="N19" s="168"/>
+      <c r="O19" s="169"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
-        <v>2.9828791929318443</v>
+        <v>1.3363203660130221</v>
       </c>
       <c r="C20" s="11">
         <f t="shared" si="1"/>
-        <v>0.39229992809340741</v>
+        <v>0.17574911673891669</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="2"/>
-        <v>11.931516771727377</v>
+        <v>5.3452814640520883</v>
       </c>
       <c r="E20" s="16">
         <f t="shared" si="6"/>
-        <v>1.5691997123736297</v>
+        <v>0.70299646695566675</v>
       </c>
       <c r="F20" s="13">
         <v>0.75</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="3"/>
-        <v>4.0319514827408893</v>
+        <v>1.9816189703976543</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="4"/>
-        <v>5550</v>
+        <v>6105</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="5"/>
-        <v>772.57347074393851</v>
+        <v>1857.7634479290703</v>
       </c>
       <c r="J20" s="6">
         <f>IF(H20&lt;$I$2,(1-F20)*$G$2/(1/Calculations!$L$11),(1-F20)*$G$2)</f>
-        <v>21.511627906976745</v>
+        <v>76.976421636615811</v>
       </c>
       <c r="M20" s="24" t="s">
         <v>58</v>
@@ -9489,41 +9942,41 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
-        <v>3.4630155008616956</v>
+        <v>1.5514199008078997</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="1"/>
-        <v>0.48013630792985129</v>
+        <v>0.21509953479487764</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="2"/>
-        <v>13.852062003446783</v>
+        <v>6.2056796032315988</v>
       </c>
       <c r="E21" s="16">
         <f t="shared" si="6"/>
-        <v>1.9205452317194052</v>
+        <v>0.86039813917951058</v>
       </c>
       <c r="F21" s="13">
         <v>0.8</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="3"/>
-        <v>4.5120877906707406</v>
+        <v>2.196718505192532</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="4"/>
-        <v>5920</v>
+        <v>6512</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="5"/>
-        <v>879.01692671310354</v>
+        <v>2113.7219674215198</v>
       </c>
       <c r="J21" s="6">
         <f>IF(H21&lt;$I$2,(1-F21)*$G$2/(1/Calculations!$L$11),(1-F21)*$G$2)</f>
-        <v>17.209302325581394</v>
+        <v>61.581137309292636</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>61</v>
@@ -9535,41 +9988,41 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>4.0820188613043591</v>
+        <v>1.8287314322806163</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="1"/>
-        <v>0.61900336044266346</v>
+        <v>0.27731153147271659</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="2"/>
-        <v>16.328075445217436</v>
+        <v>7.3149257291224652</v>
       </c>
       <c r="E22" s="16">
         <f t="shared" si="6"/>
-        <v>2.4760134417706539</v>
+        <v>1.1092461258908664</v>
       </c>
       <c r="F22" s="13">
         <v>0.85</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="3"/>
-        <v>5.1310911511134041</v>
+        <v>2.4740300366652486</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="4"/>
-        <v>6290</v>
+        <v>6919</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="5"/>
-        <v>992.3277024222142</v>
+        <v>2386.1939397844508</v>
       </c>
       <c r="J22" s="6">
         <f>IF(H22&lt;$I$2,(1-F22)*$G$2/(1/Calculations!$L$11),(1-F22)*$G$2)</f>
-        <v>12.906976744186048</v>
+        <v>46.185852981969497</v>
       </c>
       <c r="M22" s="26" t="s">
         <v>47</v>
@@ -9582,125 +10035,125 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>4.9544550973276182</v>
+        <v>2.2195800838144111</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="1"/>
-        <v>0.87243623602325915</v>
+        <v>0.39084865153379478</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="2"/>
-        <v>19.817820389310473</v>
+        <v>8.8783203352576443</v>
       </c>
       <c r="E23" s="16">
         <f t="shared" si="6"/>
-        <v>3.4897449440930366</v>
+        <v>1.5633946061351791</v>
       </c>
       <c r="F23" s="13">
         <v>0.9</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="3"/>
-        <v>6.0035273871366632</v>
+        <v>2.8648786881990436</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>6660</v>
+        <v>7326</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="5"/>
-        <v>1112.5057978712714</v>
+        <v>2675.1793650178611</v>
       </c>
       <c r="J23" s="6">
         <f>IF(H23&lt;$I$2,(1-F23)*$G$2/(1/Calculations!$L$11),(1-F23)*$G$2)</f>
-        <v>8.604651162790697</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+        <v>30.790568654646318</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>6.4458946937935373</v>
+        <v>2.8877402668209209</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="1"/>
-        <v>1.4914395964659191</v>
+        <v>0.66816018300650981</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="2"/>
-        <v>25.783578775174149</v>
+        <v>11.550961067283684</v>
       </c>
       <c r="E24" s="16">
         <f t="shared" si="6"/>
-        <v>5.9657583858636762</v>
+        <v>2.6726407320260392</v>
       </c>
       <c r="F24" s="13">
         <v>0.95</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="3"/>
-        <v>7.4949669836025823</v>
+        <v>3.5330388712055534</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="4"/>
-        <v>7030</v>
+        <v>7733</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="5"/>
-        <v>1239.5512130602747</v>
+        <v>2980.6782431217521</v>
       </c>
       <c r="J24" s="6">
         <f>IF(H24&lt;$I$2,(1-F24)*$G$2/(1/Calculations!$L$11),(1-F24)*$G$2)</f>
-        <v>4.3023255813953529</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
+        <v>15.395284327323175</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <f t="shared" si="0"/>
-        <v>2.152157203778347</v>
+        <v>0.9641595640498859</v>
       </c>
       <c r="C26" s="28">
         <f>B26-B$17</f>
-        <v>0.18058129938257417</v>
+        <v>8.0899846248497442E-2</v>
       </c>
       <c r="D26" s="27">
         <f t="shared" si="2"/>
-        <v>8.6086288151133878</v>
+        <v>3.8566382561995436</v>
       </c>
       <c r="E26" s="29">
         <f>D26-D$17</f>
-        <v>0.72232519753029667</v>
+        <v>0.32359938499398977</v>
       </c>
       <c r="F26" s="30">
         <v>0.63219999999999998</v>
       </c>
       <c r="G26" s="27">
         <f>IF(H17&lt;$I$2,G$17+E26,G$17+C26)</f>
-        <v>3.2012294935873919</v>
+        <v>1.6094581684345179</v>
       </c>
       <c r="H26" s="31">
         <f t="shared" si="4"/>
-        <v>4678.28</v>
+        <v>5146.1080000000002</v>
       </c>
       <c r="I26" s="31">
         <f t="shared" si="5"/>
-        <v>548.94173058625734</v>
+        <v>1320.0089321525249</v>
       </c>
       <c r="J26" s="31">
         <f>IF(H26&lt;$I$2,(1-F26)*$G$2/(1/Calculations!$L$11),(1-F26)*$G$2)</f>
-        <v>31.647906976744189</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="12.75" customHeight="1"/>
+        <v>113.24771151178919</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="M19:O19"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="I5:I24 I26">
-    <cfRule type="expression" dxfId="4" priority="12">
+  <conditionalFormatting sqref="G5:G24 G26">
+    <cfRule type="expression" dxfId="4" priority="31">
       <formula>$H5&lt;I$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9709,13 +10162,13 @@
       <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J24 J26">
-    <cfRule type="expression" dxfId="2" priority="30">
+  <conditionalFormatting sqref="I5:I24 I26">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$H5&lt;I$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G24 G26">
-    <cfRule type="expression" dxfId="1" priority="31">
+  <conditionalFormatting sqref="J5:J24 J26">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>$H5&lt;I$2</formula>
     </cfRule>
   </conditionalFormatting>
